--- a/DESIGN/design.xlsx
+++ b/DESIGN/design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>间隔程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>注：崎岖程度越高，间隔程度可生效的可能性会减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定该关卡需要生成多少个格子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -422,39 +430,47 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
